--- a/maven-selenium-testNG-parallel-setup/testDatas/locations-sample-data.xlsx
+++ b/maven-selenium-testNG-parallel-setup/testDatas/locations-sample-data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htrungvu\automation\frameworks\framework101\testDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3EAB7D-D562-48FB-A62C-45BD9985B781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68980B45-0A74-493A-A216-2D5E63244B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A14DBCD-5547-48C8-8E34-EC44CC5504B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4A14DBCD-5547-48C8-8E34-EC44CC5504B2}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
+    <sheet name="ASPs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>address</t>
   </si>
@@ -102,12 +103,46 @@
   </si>
   <si>
     <t>Laos</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>technician, teacher</t>
+  </si>
+  <si>
+    <t>project manager, product owner</t>
+  </si>
+  <si>
+    <t>student, worker</t>
+  </si>
+  <si>
+    <t>developer, tester, business analyst</t>
+  </si>
+  <si>
+    <t>ASP_001</t>
+  </si>
+  <si>
+    <t>ASP_002</t>
+  </si>
+  <si>
+    <t>ASP_003</t>
+  </si>
+  <si>
+    <t>ASP_004</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,106 +494,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63121158-0EE9-4F76-8C3C-2622D9D5D4A7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.77734375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s" s="0">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G1" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="0">
         <v>550000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="0">
         <v>224445</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="0">
         <v>440000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="0">
         <v>5457779</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+      <c r="G5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" t="s" s="0">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C915C811-ACDB-4EC1-AE45-E2C18404E406}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.77734375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.21875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.5546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0">
+        <v>550000</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0">
+        <v>224445</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0">
+        <v>440000</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0">
+        <v>5457779</v>
       </c>
     </row>
   </sheetData>
